--- a/ExportData/Test 0 User 1.xlsx
+++ b/ExportData/Test 0 User 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="PowerMeausurments" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="EnergyMeausurments" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PowerMeausurments" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyMeausurments" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -49,18 +49,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -429,18 +429,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="9.4" customWidth="1" min="3" max="3"/>
-    <col width="9.4" customWidth="1" min="4" max="4"/>
-    <col width="9.4" customWidth="1" min="5" max="5"/>
-    <col width="9.4" customWidth="1" min="6" max="6"/>
-    <col width="9.4" customWidth="1" min="7" max="7"/>
-    <col width="9.4" customWidth="1" min="8" max="8"/>
-    <col width="9.4" customWidth="1" min="9" max="9"/>
-    <col width="9.4" customWidth="1" min="10" max="10"/>
-    <col width="9.4" customWidth="1" min="11" max="11"/>
-    <col width="9.4" customWidth="1" min="12" max="12"/>
-    <col width="9.4" customWidth="1" min="13" max="13"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="9.4"/>
+    <col customWidth="1" max="4" min="4" width="9.4"/>
+    <col customWidth="1" max="5" min="5" width="9.4"/>
+    <col customWidth="1" max="6" min="6" width="9.4"/>
+    <col customWidth="1" max="7" min="7" width="9.4"/>
+    <col customWidth="1" max="8" min="8" width="9.4"/>
+    <col customWidth="1" max="9" min="9" width="9.4"/>
+    <col customWidth="1" max="10" min="10" width="9.4"/>
+    <col customWidth="1" max="11" min="11" width="9.4"/>
+    <col customWidth="1" max="12" min="12" width="9.4"/>
+    <col customWidth="1" max="13" min="13" width="9.4"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -506,7 +506,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -524,18 +524,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="9.4" customWidth="1" min="3" max="3"/>
-    <col width="9.4" customWidth="1" min="4" max="4"/>
-    <col width="9.4" customWidth="1" min="5" max="5"/>
-    <col width="9.4" customWidth="1" min="6" max="6"/>
-    <col width="9.4" customWidth="1" min="7" max="7"/>
-    <col width="9.4" customWidth="1" min="8" max="8"/>
-    <col width="9.4" customWidth="1" min="9" max="9"/>
-    <col width="9.4" customWidth="1" min="10" max="10"/>
-    <col width="9.4" customWidth="1" min="11" max="11"/>
-    <col width="9.4" customWidth="1" min="12" max="12"/>
-    <col width="9.4" customWidth="1" min="13" max="13"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="9.4"/>
+    <col customWidth="1" max="4" min="4" width="9.4"/>
+    <col customWidth="1" max="5" min="5" width="9.4"/>
+    <col customWidth="1" max="6" min="6" width="9.4"/>
+    <col customWidth="1" max="7" min="7" width="9.4"/>
+    <col customWidth="1" max="8" min="8" width="9.4"/>
+    <col customWidth="1" max="9" min="9" width="9.4"/>
+    <col customWidth="1" max="10" min="10" width="9.4"/>
+    <col customWidth="1" max="11" min="11" width="9.4"/>
+    <col customWidth="1" max="12" min="12" width="9.4"/>
+    <col customWidth="1" max="13" min="13" width="9.4"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -601,6 +601,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>